--- a/main/data/two_sum.xlsx
+++ b/main/data/two_sum.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.84605598449707</v>
+        <v>17.99273490905762</v>
       </c>
       <c r="D2" t="n">
-        <v>192</v>
+        <v>26377</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.09923553466797</v>
+        <v>16.96491241455078</v>
       </c>
       <c r="D3" t="n">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.12419700622559</v>
+        <v>16.50500297546387</v>
       </c>
       <c r="D4" t="n">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.76323127746582</v>
+        <v>16.51978492736816</v>
       </c>
       <c r="D5" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.22988891601562</v>
+        <v>16.5712833404541</v>
       </c>
       <c r="D6" t="n">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/two_sum.xlsx
+++ b/main/data/two_sum.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.99273490905762</v>
+        <v>19.05202865600586</v>
       </c>
       <c r="D2" t="n">
-        <v>26377</v>
+        <v>27073</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.96491241455078</v>
+        <v>17.4708366394043</v>
       </c>
       <c r="D3" t="n">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.50500297546387</v>
+        <v>17.50016212463379</v>
       </c>
       <c r="D4" t="n">
         <v>242</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.51978492736816</v>
+        <v>16.98493957519531</v>
       </c>
       <c r="D5" t="n">
         <v>242</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.5712833404541</v>
+        <v>16.98803901672363</v>
       </c>
       <c r="D6" t="n">
         <v>242</v>

--- a/main/data/two_sum.xlsx
+++ b/main/data/two_sum.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.05202865600586</v>
+        <v>21.95096015930176</v>
       </c>
       <c r="D2" t="n">
-        <v>27073</v>
+        <v>26457</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.4708366394043</v>
+        <v>18.21589469909668</v>
       </c>
       <c r="D3" t="n">
         <v>242</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.50016212463379</v>
+        <v>17.30036735534668</v>
       </c>
       <c r="D4" t="n">
         <v>242</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.98493957519531</v>
+        <v>17.9598331451416</v>
       </c>
       <c r="D5" t="n">
         <v>242</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.98803901672363</v>
+        <v>17.35973358154297</v>
       </c>
       <c r="D6" t="n">
         <v>242</v>
